--- a/Assets/StreamingAssets/TrendingEvents.xlsx
+++ b/Assets/StreamingAssets/TrendingEvents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\87179\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Space\Unity_Work_Space_Git\Trend_Git\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72798D1D-EEB5-4EBE-AD43-18911FB2DA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6694654-5CDA-486F-AFDC-8A672146C463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C5D1789E-8B7E-48BB-839D-B3356631E7AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5D1789E-8B7E-48BB-839D-B3356631E7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>#A</t>
   </si>
@@ -86,175 +84,252 @@
     <t>People are furious on internet and blaming the mayor has no dignity.</t>
   </si>
   <si>
+    <t>A foreign president has arrived at New York for visiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mayor declared to run for the president for next election </t>
+  </si>
+  <si>
+    <t>It was learned that the selfie was taken by the request of her grandpa</t>
+  </si>
+  <si>
+    <t>#E</t>
+  </si>
+  <si>
+    <t>#R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An electric car accident occurred, the driver claimed that the brake was not working </t>
+  </si>
+  <si>
+    <t>Netizens critcize the manufacturer for the quality of the car</t>
+  </si>
+  <si>
+    <t>Third part quality control organizations investigate the case</t>
+  </si>
+  <si>
+    <t>The report showned that there was nothing wrong with the brake, and the driver was making false claims</t>
+  </si>
+  <si>
+    <t>#F</t>
+  </si>
+  <si>
+    <t>2023 Black Friday achieved record breaking sales number of 10 billion sales</t>
+  </si>
+  <si>
+    <t>BMW sales only offering ice cream to foreigners at an exhibition</t>
+  </si>
+  <si>
+    <t>Netizens critcize the BMW for discrimination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMW announced that it will provide ice cream to everyone next day </t>
+  </si>
+  <si>
+    <t>#G</t>
+  </si>
+  <si>
+    <t>Apple releases Iphone 99, claiming it's the fastest iphone made yet</t>
+  </si>
+  <si>
+    <t>U.S Police reported that a former software engineer at apple had escaped U.S. avoiding arrest</t>
+  </si>
+  <si>
+    <t>it was reported that software engineer returned to home country immediately after causing a  car accident, avoiding arrest</t>
+  </si>
+  <si>
+    <t>Software engineer's flight had landed at his home country</t>
+  </si>
+  <si>
+    <t>U.S police made an announcement that hopes the suspect to return to U.S. for trial</t>
+  </si>
+  <si>
+    <t>#H</t>
+  </si>
+  <si>
+    <t>The president claimed that the newly discovered virus COVID-2099 will disapper soon, just like a miracle</t>
+  </si>
+  <si>
+    <t>The number of death caused by COVID-2099 reached 420,200</t>
+  </si>
+  <si>
+    <t>The number of death caused by COVID-2099 reached 600,200</t>
+  </si>
+  <si>
+    <t>#I</t>
+  </si>
+  <si>
+    <t>#J</t>
+  </si>
+  <si>
+    <t>#K</t>
+  </si>
+  <si>
+    <t>#L</t>
+  </si>
+  <si>
+    <t>#M</t>
+  </si>
+  <si>
+    <t>#N</t>
+  </si>
+  <si>
+    <t>Amber Herd claimed actor Johnny Dep abused her physically, asking for divorce</t>
+  </si>
+  <si>
+    <t>Dep denied such accuse and claim such accuse hurt his reputation</t>
+  </si>
+  <si>
+    <t>The judge determined the accuse of Herd is false and require compensatory for Dep</t>
+  </si>
+  <si>
+    <t>Netizens criticized the zoo for the not taking care well of the panda</t>
+  </si>
+  <si>
+    <t>The Zoo claimed that there are no abusement toward the panda</t>
+  </si>
+  <si>
+    <t>Dodge Coin priced rises more than 800%</t>
+  </si>
+  <si>
+    <t>Dodge Coin price decrease for more than 300%</t>
+  </si>
+  <si>
+    <t>Elen Musk posted on twitter: "Dodge coin price is too high righet now!"</t>
+  </si>
+  <si>
+    <t>Panda Yaya was reported abused in Mehis Zoo</t>
+  </si>
+  <si>
+    <t>The home country of Yaya announced it will take Yaya back</t>
+  </si>
+  <si>
+    <t>Singer Tyler Sweat started her World Tour concerts</t>
+  </si>
+  <si>
+    <t>Experts said the pollution could affect people continually in next 10 years</t>
+  </si>
+  <si>
+    <t>Officals say the pollution will be gone in no time</t>
+  </si>
+  <si>
+    <t>SpaceX launched Falcon 9 successfully</t>
+  </si>
+  <si>
+    <t>A chemical train crashed exploded in ohaio, polluting the water and soil</t>
+  </si>
+  <si>
+    <t>Residents have been evacuated from the town near the explosion</t>
+  </si>
+  <si>
+    <t>Experts and some school officials criticize the the new ranking is not accurate and misleading</t>
+  </si>
+  <si>
+    <t>2099-U.S. News university ranking published, some college rankings changed dramatically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some schools send out letters to students claiming their education quality remain the same and no need to worry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. News claimed that it had calculated rankings of 200 universities incorrectly </t>
+  </si>
+  <si>
+    <t>The well know band Mayflower was found Lip-synching in conerts</t>
+  </si>
+  <si>
+    <t>Mayflower claimed he will stream next concert live worldwide</t>
+  </si>
+  <si>
+    <t>The live concert performance was a diaster</t>
+  </si>
+  <si>
+    <t>#O</t>
+  </si>
+  <si>
+    <t>The president demand Chinese tech company bitdance to sell all its part to US company for national security purposes</t>
+  </si>
+  <si>
+    <t>Bitdance claim it will satisfy the order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitdance established partnership with Orable to meet satisfy the requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baldur's Window became the game of the year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spend a hundred thousand dollars on lottery tickets and win a million dollars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Influencer little cow brother spends 10 million to hold a free concert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elen Musk posted on twitter: "Dodge to the moon!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elen Musk calls for curbing the development of the artificial intelligence model JPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singer Mr. 51 was exposed for seducing a minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singer Mr. 51 jumped to his death and stated in his suicide note that he did not rape minors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>It was reported the city mayor had cleaned up the trash, tramps, and homelesses to welcome the guest before arrival</t>
-  </si>
-  <si>
-    <t>A foreign president has arrived at New York for visiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mayor declared to run for the president for next election </t>
-  </si>
-  <si>
-    <t>It was learned that the selfie was taken by the request of her grandpa</t>
-  </si>
-  <si>
-    <t>#E</t>
-  </si>
-  <si>
-    <t>#R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An electric car accident occurred, the driver claimed that the brake was not working </t>
-  </si>
-  <si>
-    <t>Netizens critcize the manufacturer for the quality of the car</t>
-  </si>
-  <si>
-    <t>Third part quality control organizations investigate the case</t>
-  </si>
-  <si>
-    <t>The report showned that there was nothing wrong with the brake, and the driver was making false claims</t>
-  </si>
-  <si>
-    <t>#F</t>
-  </si>
-  <si>
-    <t>2023 Black Friday achieved record breaking sales number of 10 billion sales</t>
-  </si>
-  <si>
-    <t>BMW sales only offering ice cream to foreigners at an exhibition</t>
-  </si>
-  <si>
-    <t>Netizens critcize the BMW for discrimination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMW announced that it will provide ice cream to everyone next day </t>
-  </si>
-  <si>
-    <t>#G</t>
-  </si>
-  <si>
-    <t>Apple releases Iphone 99, claiming it's the fastest iphone made yet</t>
-  </si>
-  <si>
-    <t>U.S Police reported that a former software engineer at apple had escaped U.S. avoiding arrest</t>
-  </si>
-  <si>
-    <t>it was reported that software engineer returned to home country immediately after causing a  car accident, avoiding arrest</t>
-  </si>
-  <si>
-    <t>Software engineer's flight had landed at his home country</t>
-  </si>
-  <si>
-    <t>U.S police made an announcement that hopes the suspect to return to U.S. for trial</t>
-  </si>
-  <si>
-    <t>#H</t>
-  </si>
-  <si>
-    <t>The president claimed that the newly discovered virus COVID-2099 will disapper soon, just like a miracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The number of death caused by COVID-2099 reached 320,200</t>
-  </si>
-  <si>
-    <t>The number of death caused by COVID-2099 reached 420,200</t>
-  </si>
-  <si>
-    <t>The number of death caused by COVID-2099 reached 600,200</t>
-  </si>
-  <si>
-    <t>#I</t>
-  </si>
-  <si>
-    <t>#J</t>
-  </si>
-  <si>
-    <t>#K</t>
-  </si>
-  <si>
-    <t>#L</t>
-  </si>
-  <si>
-    <t>#M</t>
-  </si>
-  <si>
-    <t>#N</t>
-  </si>
-  <si>
-    <t>Amber Herd claimed actor Johnny Dep abused her physically, asking for divorce</t>
-  </si>
-  <si>
-    <t>Dep denied such accuse and claim such accuse hurt his reputation</t>
-  </si>
-  <si>
-    <t>The judge determined the accuse of Herd is false and require compensatory for Dep</t>
-  </si>
-  <si>
-    <t>Netizens criticized the zoo for the not taking care well of the panda</t>
-  </si>
-  <si>
-    <t>The Zoo claimed that there are no abusement toward the panda</t>
-  </si>
-  <si>
-    <t>Dodge Coin priced rises more than 800%</t>
-  </si>
-  <si>
-    <t>Dodge Coin price decrease for more than 300%</t>
-  </si>
-  <si>
-    <t>Elen Musk posted on twitter: "Dodge to the moon!"</t>
-  </si>
-  <si>
-    <t>Elen Musk posted on twitter: "Dodge coin price is too high righet now!"</t>
-  </si>
-  <si>
-    <t>Panda Yaya was reported abused in Mehis Zoo</t>
-  </si>
-  <si>
-    <t>The home country of Yaya announced it will take Yaya back</t>
-  </si>
-  <si>
-    <t>Singer Tyler Sweat started her World Tour concerts</t>
-  </si>
-  <si>
-    <t>Experts said the pollution could affect people continually in next 10 years</t>
-  </si>
-  <si>
-    <t>Officals say the pollution will be gone in no time</t>
-  </si>
-  <si>
-    <t>SpaceX launched Falcon 9 successfully</t>
-  </si>
-  <si>
-    <t>A chemical train crashed exploded in ohaio, polluting the water and soil</t>
-  </si>
-  <si>
-    <t>Residents have been evacuated from the town near the explosion</t>
-  </si>
-  <si>
-    <t>Experts and some school officials criticize the the new ranking is not accurate and misleading</t>
-  </si>
-  <si>
-    <t>2099-U.S. News university ranking published, some college rankings changed dramatically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some schools send out letters to students claiming their education quality remain the same and no need to worry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. News claimed that it had calculated rankings of 200 universities incorrectly </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The domestic economy in the fourth quarter shows stability and improvement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The granddaughter of the former head of the Freight Management Division of the Transportation Bureau flaunts her wealth online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There will be no holiday on Christmas Eve this year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A chemistry professor from Colombia University wins the Nonebel Prize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,7 +363,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,12 +378,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -604,22 +675,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59EE46-C81E-4DDA-B991-8045B2D40740}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="36.90625" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" customWidth="1"/>
-    <col min="4" max="4" width="41.81640625" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -650,10 +723,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -670,198 +743,268 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E17" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
-        <v>62</v>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3f69a011-957f-4861-b8f8-ae13bf56f493" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -870,7 +1013,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CCD3D8E5F48B4449334BDE506EA8676" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a4b4757e1b1dd5142e55a9e89483debb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3f69a011-957f-4861-b8f8-ae13bf56f493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cfbb5cb3fb241e45d7902e136b5d9f8" ns3:_="">
     <xsd:import namespace="3f69a011-957f-4861-b8f8-ae13bf56f493"/>
@@ -1014,15 +1157,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3f69a011-957f-4861-b8f8-ae13bf56f493" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9264175-AFFA-4906-BF2D-2AE7D15C74E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3f69a011-957f-4861-b8f8-ae13bf56f493"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FA83D2-1486-4133-9C05-7ABBE0DEEBD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1030,7 +1181,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E53BA313-4EFE-48FD-AA6E-88E75BF91E57}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1046,20 +1197,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9264175-AFFA-4906-BF2D-2AE7D15C74E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3f69a011-957f-4861-b8f8-ae13bf56f493"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Assets/StreamingAssets/TrendingEvents.xlsx
+++ b/Assets/StreamingAssets/TrendingEvents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Space\Unity_Work_Space_Git\Trend_Git\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6694654-5CDA-486F-AFDC-8A672146C463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9325F4-89E6-4D6F-AA65-27645F1D6DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5D1789E-8B7E-48BB-839D-B3356631E7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>#A</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>A chemistry professor from Colombia University wins the Nonebel Prize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Famous actress Zhou died of lupus erythematosus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real estate group HenSmall capital chain breaks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron Valley Bank declares bankruptcy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59EE46-C81E-4DDA-B991-8045B2D40740}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -948,7 +960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -987,6 +999,15 @@
       </c>
       <c r="M17" t="s">
         <v>83</v>
+      </c>
+      <c r="N17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -997,20 +1018,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3f69a011-957f-4861-b8f8-ae13bf56f493" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3f69a011-957f-4861-b8f8-ae13bf56f493" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1158,6 +1179,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FA83D2-1486-4133-9C05-7ABBE0DEEBD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9264175-AFFA-4906-BF2D-2AE7D15C74E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1169,14 +1198,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="3f69a011-957f-4861-b8f8-ae13bf56f493"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FA83D2-1486-4133-9C05-7ABBE0DEEBD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Assets/StreamingAssets/TrendingEvents.xlsx
+++ b/Assets/StreamingAssets/TrendingEvents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Space\Unity_Work_Space_Git\Trend_Git\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9325F4-89E6-4D6F-AA65-27645F1D6DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00119A5-2541-49DD-BBB0-D9BD18A550DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5D1789E-8B7E-48BB-839D-B3356631E7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>#A</t>
   </si>
@@ -322,6 +322,10 @@
   </si>
   <si>
     <t>Iron Valley Bank declares bankruptcy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher Huang promotes the reform of the national education system </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,9 +691,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59EE46-C81E-4DDA-B991-8045B2D40740}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -960,7 +964,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1008,6 +1012,9 @@
       </c>
       <c r="P17" t="s">
         <v>89</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1018,20 +1025,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3f69a011-957f-4861-b8f8-ae13bf56f493" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3f69a011-957f-4861-b8f8-ae13bf56f493" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1179,14 +1186,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FA83D2-1486-4133-9C05-7ABBE0DEEBD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9264175-AFFA-4906-BF2D-2AE7D15C74E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1198,6 +1197,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="3f69a011-957f-4861-b8f8-ae13bf56f493"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FA83D2-1486-4133-9C05-7ABBE0DEEBD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
